--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.1791</v>
+        <v>-7.100099999999998</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.45500000000001</v>
+        <v>-22.48370000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.9418</v>
+        <v>-21.8796</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.54460000000001</v>
+        <v>-21.54220000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.035899999999998</v>
+        <v>-7.959599999999998</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.47650000000002</v>
+        <v>-22.40220000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.906799999999993</v>
+        <v>-8.010599999999995</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.719399999999998</v>
+        <v>-7.841799999999997</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.135100000000001</v>
+        <v>-7.159899999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.594200000000003</v>
+        <v>-7.259500000000007</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.592599999999997</v>
+        <v>-8.484500000000002</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.50689999999999</v>
+        <v>-19.6591</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.984499999999993</v>
+        <v>-7.988599999999994</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.174699999999996</v>
+        <v>-8.061699999999997</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.24730000000002</v>
+        <v>-22.30630000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.56869999999999</v>
+        <v>-21.5372</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.902199999999998</v>
+        <v>-6.988599999999995</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.302699999999999</v>
+        <v>-7.268799999999998</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.89949999999999</v>
+        <v>-21.04099999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.67939999999999</v>
+        <v>-20.87059999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.8941</v>
+        <v>-21.8101</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.1435</v>
+        <v>-22.1387</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.016699999999995</v>
+        <v>-8.004199999999997</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.266799999999996</v>
+        <v>-7.391699999999995</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.461200000000003</v>
+        <v>-7.495000000000005</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.583100000000005</v>
+        <v>-8.423900000000007</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.797999999999998</v>
+        <v>-7.866499999999999</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.892899999999998</v>
+        <v>-7.802799999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
